--- a/data/jfq_test.xlsx
+++ b/data/jfq_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E429E9C7-0703-BD49-B3EC-E2CD61B2114F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F35572-B3CC-0044-AC90-2A51D79EA5B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="1020" windowWidth="28360" windowHeight="14720" tabRatio="500" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="1020" windowWidth="28360" windowHeight="14720" tabRatio="500" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="apply" sheetId="4" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="calculate" sheetId="27" r:id="rId9"/>
     <sheet name="offline_repay" sheetId="26" r:id="rId10"/>
     <sheet name="cash_push" sheetId="28" r:id="rId11"/>
+    <sheet name="project_cancel" sheetId="29" r:id="rId12"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="50">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,6 +527,31 @@
   "payAccount" : "6214888888888888888",
   "acceptAccount" : "6214888888888888888",
   "finishTime" : "2020-05-06 12:30:30"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/busi/project/cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "X-TBC-SOURCE":"tbc_zhtb_jfx",
+  "X-TBC-SIGN":"",
+  "Content-Type":"application/json"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jkjr",
+	"sourceCode": "jkjr",
+	"sourceProjectId": "1",
+	"projectId": "1"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2153,7 +2179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95FCB13-4588-7F4F-B05C-07E2C8ECE8D3}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2196,6 +2222,60 @@
         <v>45</v>
       </c>
       <c r="E2" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8193CC60-1F9A-5144-B8CE-A2F3A2977D6E}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2">
         <v>2000</v>
       </c>
     </row>

--- a/data/jfq_test.xlsx
+++ b/data/jfq_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F35572-B3CC-0044-AC90-2A51D79EA5B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CC2A4E-DA38-744D-BD09-39409917D836}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="1020" windowWidth="28360" windowHeight="14720" tabRatio="500" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="1020" windowWidth="28360" windowHeight="14720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="apply" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="cash_push" sheetId="28" r:id="rId11"/>
     <sheet name="project_cancel" sheetId="29" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -552,6 +552,20 @@
 	"sourceCode": "jkjr",
 	"sourceProjectId": "1",
 	"projectId": "1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "jkjr",
+  "sourceCode": "jkjr",
+  "serviceSn": "1547904999999",
+  "sourceUserId": "45",
+  "contractType": 14,
+  "sourceContractId": "123423007",
+  "associationId": "7980652574031872",
+  "transactionId": "Test_45",
+  "content": ""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2235,7 +2249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8193CC60-1F9A-5144-B8CE-A2F3A2977D6E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -2289,7 +2303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2298,7 +2312,7 @@
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -2318,7 +2332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="187" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2328,7 +2342,9 @@
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>

--- a/data/jfq_test.xlsx
+++ b/data/jfq_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CC2A4E-DA38-744D-BD09-39409917D836}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3859A9-064B-1444-B3EC-AF8E4E1615FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="1020" windowWidth="28360" windowHeight="14720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="1020" windowWidth="28360" windowHeight="14720" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="apply" sheetId="4" r:id="rId1"/>
@@ -253,17 +253,6 @@
 	"contractType": 2,
 	"contractId": "9120390934",
 	"associationId ": "01298483"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"channel": "jkjr",
-	"sourceCode": "jkjr",
-	"imageType": 30,
-	"bizType": 2,
-	"associationId": "83193",
-	"imageUrl": "https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1593405568034&amp;di=2a3f8ccccf1b5ccfed254e21aa3a9b3d&amp;imgtype=0&amp;src=http%3A%2F%2Fa2.att.hudong.com%2F36%2F48%2F19300001357258133412489354717.jpg"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -566,6 +555,17 @@
   "associationId": "7980652574031872",
   "transactionId": "Test_45",
   "content": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jkjr",
+	"sourceCode": "jkjr",
+	"imageType": 30,
+	"bizType": 2,
+	"associationId": "83193",
+	"imageUrl": "https://th.bing.com/th/id/R65398d6ad86129f9628c0ad80da4040c?rik=C3qNS9mZOQk%2b5A&amp;riu=http%3a%2f%2fwww.shijuepi.com%2fuploads%2fallimg%2f200918%2f1-20091Q10420.jpg"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>7</v>
@@ -2177,7 +2177,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -2207,33 +2207,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="372" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="7">
         <v>2000</v>
@@ -2278,16 +2278,16 @@
     </row>
     <row r="2" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="E2">
         <v>2000</v>
@@ -2303,7 +2303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2343,7 +2343,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -2555,7 +2555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9ACDAE3-F10E-634D-AB29-2551C5E0457E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2584,7 +2584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="238" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="221" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -2651,7 +2651,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
